--- a/data-for-figs/Mock_data_info.xlsx
+++ b/data-for-figs/Mock_data_info.xlsx
@@ -348,15 +348,6 @@
     </r>
   </si>
   <si>
-    <t>b 27 species</t>
-  </si>
-  <si>
-    <t>a All reads were trimmed to the size of the metabarcode minus primers</t>
-  </si>
-  <si>
-    <t>c ignoring the index experiment within the MiSeq pools</t>
-  </si>
-  <si>
     <r>
       <t>1</t>
     </r>
@@ -385,7 +376,88 @@
     </r>
   </si>
   <si>
-    <t>d libraries MC11, MC21, MC51, MC61</t>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> All reads were trimmed to the size of the metabarcode minus primers</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve">b </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>27 species</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>c</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ignoring the index experiment within the MiSeq pools</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>d</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> libraries MC11, MC21, MC51, MC61</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -458,7 +530,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -487,6 +559,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -767,7 +840,7 @@
   <dimension ref="A1:AG24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -875,7 +948,7 @@
         <v>34</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F6" s="5" t="s">
         <v>16</v>
@@ -895,7 +968,7 @@
         <v>12</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F7" s="5" t="s">
         <v>19</v>
@@ -914,29 +987,29 @@
       <c r="D8" s="10">
         <v>12</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" s="14" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="19" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="19" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="19" x14ac:dyDescent="0.2">
+      <c r="A11" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="F8" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:6" ht="19" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>32</v>
       </c>

--- a/data-for-figs/Mock_data_info.xlsx
+++ b/data-for-figs/Mock_data_info.xlsx
@@ -9,10 +9,10 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1040" yWindow="1640" windowWidth="24560" windowHeight="13580" tabRatio="500"/>
+    <workbookView xWindow="980" yWindow="1080" windowWidth="24560" windowHeight="13580" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="Mock data summary" sheetId="1" r:id="rId1"/>
+    <sheet name="Table 1. " sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -27,20 +27,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="33">
-  <si>
-    <t>Figure X. Datasets used to test the Anacapa toolkit</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="34">
   <si>
     <t>Marker</t>
   </si>
   <si>
-    <t>Marker Region</t>
-  </si>
-  <si>
-    <t>Dataset name</t>
-  </si>
-  <si>
     <t># of MiSeq pools tested in current study</t>
   </si>
   <si>
@@ -50,9 +41,6 @@
     <t>16S - V4</t>
   </si>
   <si>
-    <t>V4 (EMP ref)</t>
-  </si>
-  <si>
     <r>
       <t>Krohn, A., Stevens, B., Robbins-Pianka, A., Belus, M., Allan, G.J. and Gehring, C., 2016. Optimization of 16S amplicon analysis using mock communities: implications for estimating community diversity. </t>
     </r>
@@ -92,9 +80,6 @@
     </r>
   </si>
   <si>
-    <t>Extreme</t>
-  </si>
-  <si>
     <r>
       <t>Callahan, B.J., McMurdie, P.J., Rosen, M.J., Han, A.W., Johnson, A.J.A. and Holmes, S.P., 2016. DADA2: high-resolution sample inference from Illumina amplicon data. </t>
     </r>
@@ -134,12 +119,6 @@
     </r>
   </si>
   <si>
-    <t>V4 (HMP paper ref)</t>
-  </si>
-  <si>
-    <t>HMP</t>
-  </si>
-  <si>
     <r>
       <t>Kozich, J.J., Westcott, S.L., Baxter, N.T., Highlander, S.K. and Schloss, P.D., 2013. Development of a dual-index sequencing strategy and curation pipeline for analyzing amplicon sequence data on the MiSeq Illumina sequencing platform. </t>
     </r>
@@ -227,9 +206,6 @@
     <t>18S - V4</t>
   </si>
   <si>
-    <t>Reuk454FWD1, V4r (41, bradley paper ref)</t>
-  </si>
-  <si>
     <r>
       <t>Bradley, I.M., Pinto, A.J. and Guest, J.S., 2016. Design and evaluation of Illumina MiSeq-compatible, 18S rRNA gene-specific primers for improved characterization of mixed phototrophic communities. </t>
     </r>
@@ -272,12 +248,6 @@
     <t>18S - V8-9</t>
   </si>
   <si>
-    <t>1132r, 1510r (bradley)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41 = </t>
-  </si>
-  <si>
     <r>
       <t>Stoeck, T., Bass, D., Nebel, M., Christen, R., Jones, M.D., BREINER, H.W. and Richards, T.A., 2010. Multiple marker parallel tag environmental DNA sequencing reveals a highly complex eukaryotic community in marine anoxic water. </t>
     </r>
@@ -314,23 +284,6 @@
         <rFont val="Arial"/>
       </rPr>
       <t>(s1), pp.21-31.</t>
-    </r>
-  </si>
-  <si>
-    <t>Andrew</t>
-  </si>
-  <si>
-    <r>
-      <t># sanger sequnced isolates with unique reads within marker region</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t>a</t>
     </r>
   </si>
   <si>
@@ -404,7 +357,7 @@
         <color theme="1"/>
         <rFont val="Calibri (Body)"/>
       </rPr>
-      <t xml:space="preserve">b </t>
+      <t>d</t>
     </r>
     <r>
       <rPr>
@@ -414,8 +367,38 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>27 species</t>
-    </r>
+      <t xml:space="preserve"> libraries MC11, MC21, MC51, MC61</t>
+    </r>
+  </si>
+  <si>
+    <t>Krohn et al. 2016</t>
+  </si>
+  <si>
+    <t>Callahan et al. 2016</t>
+  </si>
+  <si>
+    <t>Kozich et al. 2013</t>
+  </si>
+  <si>
+    <t>Leray et al. 2017</t>
+  </si>
+  <si>
+    <t>Bradley et al. 2016</t>
+  </si>
+  <si>
+    <t>Reuk454FWD1 (Stoeck et al.2010), V4r (Bradley et al. 2016)</t>
+  </si>
+  <si>
+    <t>1132r, 1510r (Bradley et al. 2016)</t>
+  </si>
+  <si>
+    <t>Table references</t>
+  </si>
+  <si>
+    <t>Caporaso, J. G. et al. Ultra-high-throughput microbial community analysis on the Illumina HiSeq and MiSeq platforms. ISME J (2012). doi:10.1038/ismej.2012.8</t>
+  </si>
+  <si>
+    <t>V4 (Caporaso et al. 2012)</t>
   </si>
   <si>
     <r>
@@ -425,7 +408,7 @@
         <color theme="1"/>
         <rFont val="Calibri (Body)"/>
       </rPr>
-      <t>c</t>
+      <t xml:space="preserve">b </t>
     </r>
     <r>
       <rPr>
@@ -435,7 +418,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> ignoring the index experiment within the MiSeq pools</t>
+      <t>27 unique species</t>
     </r>
   </si>
   <si>
@@ -446,7 +429,7 @@
         <color theme="1"/>
         <rFont val="Calibri (Body)"/>
       </rPr>
-      <t>d</t>
+      <t>c</t>
     </r>
     <r>
       <rPr>
@@ -456,8 +439,28 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> libraries MC11, MC21, MC51, MC61</t>
-    </r>
+      <t xml:space="preserve"> Analyzed the the run 1 data as a single MiSeq pool</t>
+    </r>
+  </si>
+  <si>
+    <t>Metabarcode Primers</t>
+  </si>
+  <si>
+    <r>
+      <t># Isolates with unique reads within marker region</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>a</t>
+    </r>
+  </si>
+  <si>
+    <t>Table 1. Mock datasets used to test the Anacapa</t>
   </si>
 </sst>
 </file>
@@ -530,7 +533,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -560,6 +563,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -837,220 +843,225 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AG24"/>
+  <dimension ref="A1:AF24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.6640625" customWidth="1"/>
-    <col min="2" max="2" width="37.1640625" customWidth="1"/>
-    <col min="3" max="3" width="22.83203125" style="11" customWidth="1"/>
-    <col min="4" max="5" width="22.83203125" customWidth="1"/>
+    <col min="1" max="1" width="11" customWidth="1"/>
+    <col min="2" max="2" width="49.33203125" customWidth="1"/>
+    <col min="3" max="3" width="25.83203125" style="11" customWidth="1"/>
+    <col min="4" max="4" width="21.33203125" style="11" customWidth="1"/>
+    <col min="5" max="5" width="24.5" style="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" s="9" customFormat="1" ht="36" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" s="9" customFormat="1" ht="52" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+      <c r="B2" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="E2" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="12" t="s">
+    </row>
+    <row r="3" spans="1:5" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="B3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="2">
+        <v>8</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="19" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="2">
+        <v>1</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="2">
+        <v>32</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="19" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="2">
+        <v>34</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="19" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="2">
+        <v>12</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="19" x14ac:dyDescent="0.2">
+      <c r="A8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="C8" s="10">
+        <v>12</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="19" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="19" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="19" x14ac:dyDescent="0.2">
+      <c r="A11" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="19" x14ac:dyDescent="0.2">
+      <c r="A12" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A16" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:32" ht="17" x14ac:dyDescent="0.2">
+      <c r="A17" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="8" t="s">
+    </row>
+    <row r="18" spans="1:32" ht="17" x14ac:dyDescent="0.2">
+      <c r="A18" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="20" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+    <row r="19" spans="1:32" ht="17" x14ac:dyDescent="0.2">
+      <c r="A19" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" s="2">
-        <v>8</v>
-      </c>
-      <c r="E3" s="2"/>
-      <c r="F3" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="19" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="2" t="s">
+      <c r="M19" s="7"/>
+      <c r="AC19" s="7"/>
+      <c r="AF19" s="7"/>
+    </row>
+    <row r="20" spans="1:32" ht="17" x14ac:dyDescent="0.2">
+      <c r="A20" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E4" s="2">
-        <v>1</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="19" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="1" t="s">
+      <c r="M20" s="7"/>
+      <c r="AC20" s="7"/>
+      <c r="AF20" s="7"/>
+    </row>
+    <row r="21" spans="1:32" ht="17" x14ac:dyDescent="0.2">
+      <c r="A21" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="2">
-        <v>32</v>
-      </c>
-      <c r="E5" s="2">
-        <v>1</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="19" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="2">
-        <v>34</v>
-      </c>
-      <c r="E6" s="2" t="s">
+      <c r="M21" s="7"/>
+      <c r="AC21" s="7"/>
+      <c r="AF21" s="7"/>
+    </row>
+    <row r="22" spans="1:32" ht="17" x14ac:dyDescent="0.2">
+      <c r="A22" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="M22" s="7"/>
+      <c r="AC22" s="7"/>
+      <c r="AF22" s="7"/>
+    </row>
+    <row r="23" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
         <v>27</v>
       </c>
-      <c r="F6" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="19" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" s="2">
-        <v>12</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="19" x14ac:dyDescent="0.2">
-      <c r="A8" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" s="10">
-        <v>12</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="F8" s="14" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="19" x14ac:dyDescent="0.2">
-      <c r="A9" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="19" x14ac:dyDescent="0.2">
-      <c r="A10" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="19" x14ac:dyDescent="0.2">
-      <c r="A11" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="19" x14ac:dyDescent="0.2">
-      <c r="A12" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>22</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="19" spans="14:33" x14ac:dyDescent="0.2">
-      <c r="N19" s="7"/>
-      <c r="AD19" s="7"/>
-      <c r="AG19" s="7"/>
-    </row>
-    <row r="20" spans="14:33" x14ac:dyDescent="0.2">
-      <c r="N20" s="7"/>
-      <c r="AD20" s="7"/>
-      <c r="AG20" s="7"/>
-    </row>
-    <row r="21" spans="14:33" x14ac:dyDescent="0.2">
-      <c r="N21" s="7"/>
-      <c r="AD21" s="7"/>
-      <c r="AG21" s="7"/>
-    </row>
-    <row r="22" spans="14:33" x14ac:dyDescent="0.2">
-      <c r="N22" s="7"/>
-      <c r="AD22" s="7"/>
-      <c r="AG22" s="7"/>
-    </row>
-    <row r="23" spans="14:33" x14ac:dyDescent="0.2">
-      <c r="N23" s="7"/>
-      <c r="AD23" s="7"/>
-      <c r="AG23" s="7"/>
-    </row>
-    <row r="24" spans="14:33" x14ac:dyDescent="0.2">
-      <c r="N24" s="7"/>
-      <c r="AD24" s="7"/>
-      <c r="AG24" s="7"/>
+      <c r="M23" s="7"/>
+      <c r="AC23" s="7"/>
+      <c r="AF23" s="7"/>
+    </row>
+    <row r="24" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="M24" s="7"/>
+      <c r="AC24" s="7"/>
+      <c r="AF24" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
